--- a/public/output/personel-31/پرسنل31_فروردین_1400.xlsx
+++ b/public/output/personel-31/پرسنل31_فروردین_1400.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>ردیف</t>
   </si>
@@ -56,6 +56,15 @@
     <t>وضعیت</t>
   </si>
   <si>
+    <t>اضافه کاری</t>
+  </si>
+  <si>
+    <t>تاخیر در ورود</t>
+  </si>
+  <si>
+    <t>غیبت ساعتی</t>
+  </si>
+  <si>
     <t>یکشنبه</t>
   </si>
   <si>
@@ -68,6 +77,9 @@
     <t>غیبت (ساعتی)</t>
   </si>
   <si>
+    <t>7:30:0</t>
+  </si>
+  <si>
     <t>دوشنبه</t>
   </si>
   <si>
@@ -137,6 +149,9 @@
     <t>0:5:2</t>
   </si>
   <si>
+    <t>7:29:22</t>
+  </si>
+  <si>
     <t>1400/1/12</t>
   </si>
   <si>
@@ -233,6 +248,9 @@
     <t>8:12:47</t>
   </si>
   <si>
+    <t>حضور</t>
+  </si>
+  <si>
     <t>1400/1/15</t>
   </si>
   <si>
@@ -356,7 +374,7 @@
     <t>9:33:58</t>
   </si>
   <si>
-    <t>حضور</t>
+    <t>1:34:59</t>
   </si>
   <si>
     <t>1400/1/19</t>
@@ -515,6 +533,9 @@
     <t>8:22:4</t>
   </si>
   <si>
+    <t>0:20:48</t>
+  </si>
+  <si>
     <t>1400/1/24</t>
   </si>
   <si>
@@ -596,6 +617,9 @@
     <t>4:23:6</t>
   </si>
   <si>
+    <t>3:45:45</t>
+  </si>
+  <si>
     <t>1400/1/26</t>
   </si>
   <si>
@@ -671,6 +695,9 @@
     <t>4:31:4</t>
   </si>
   <si>
+    <t>4:21:16</t>
+  </si>
+  <si>
     <t>1400/1/29</t>
   </si>
   <si>
@@ -753,6 +780,9 @@
   </si>
   <si>
     <t>8:44:28</t>
+  </si>
+  <si>
+    <t>1:22:33</t>
   </si>
   <si>
     <t>1400/1/31</t>
@@ -883,1071 +913,1071 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="6" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="6" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E37" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="6" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="5" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -1957,13 +1987,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1979,532 +2009,625 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
+      <c r="H14" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>102</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="H18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="B27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
+      <c r="H30" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>17</v>
+      <c r="H32" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/public/output/personel-31/پرسنل31_فروردین_1400.xlsx
+++ b/public/output/personel-31/پرسنل31_فروردین_1400.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>ردیف</t>
   </si>
@@ -41,9 +41,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>مجموع ماه</t>
-  </si>
-  <si>
     <t>روز</t>
   </si>
   <si>
@@ -71,13 +68,13 @@
     <t>1400/1/1</t>
   </si>
   <si>
-    <t>0:0:0</t>
+    <t>00:00:00</t>
   </si>
   <si>
     <t>غیبت (ساعتی)</t>
   </si>
   <si>
-    <t>7:30:0</t>
+    <t>07:30:00</t>
   </si>
   <si>
     <t>دوشنبه</t>
@@ -104,6 +101,9 @@
     <t>1400/1/5</t>
   </si>
   <si>
+    <t>تعطیل</t>
+  </si>
+  <si>
     <t>جمعه</t>
   </si>
   <si>
@@ -137,19 +137,19 @@
     <t>17:14:29</t>
   </si>
   <si>
-    <t>17:15:7</t>
+    <t>17:15:07</t>
   </si>
   <si>
     <t>1400/1/11</t>
   </si>
   <si>
-    <t>0:0:38</t>
-  </si>
-  <si>
-    <t>0:5:2</t>
-  </si>
-  <si>
-    <t>7:29:22</t>
+    <t>00:00:38</t>
+  </si>
+  <si>
+    <t>00:05:02</t>
+  </si>
+  <si>
+    <t>07:29:22</t>
   </si>
   <si>
     <t>1400/1/12</t>
@@ -161,58 +161,58 @@
     <t>2</t>
   </si>
   <si>
-    <t>8:13:24</t>
-  </si>
-  <si>
-    <t>8:13:47</t>
+    <t>08:13:24</t>
+  </si>
+  <si>
+    <t>08:13:47</t>
   </si>
   <si>
     <t>1400/1/14</t>
   </si>
   <si>
-    <t>0:0:23</t>
-  </si>
-  <si>
-    <t>8:14:28</t>
-  </si>
-  <si>
-    <t>8:28:56</t>
-  </si>
-  <si>
-    <t>0:14:28</t>
-  </si>
-  <si>
-    <t>8:36:33</t>
-  </si>
-  <si>
-    <t>8:37:13</t>
-  </si>
-  <si>
-    <t>0:0:40</t>
+    <t>00:00:23</t>
+  </si>
+  <si>
+    <t>08:14:28</t>
+  </si>
+  <si>
+    <t>08:28:56</t>
+  </si>
+  <si>
+    <t>00:14:28</t>
+  </si>
+  <si>
+    <t>08:36:33</t>
+  </si>
+  <si>
+    <t>08:37:13</t>
+  </si>
+  <si>
+    <t>00:00:40</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>8:49:34</t>
+    <t>08:49:34</t>
   </si>
   <si>
     <t>12:35:14</t>
   </si>
   <si>
-    <t>3:45:40</t>
+    <t>03:45:40</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>13:0:37</t>
+    <t>13:00:37</t>
   </si>
   <si>
     <t>16:39:37</t>
   </si>
   <si>
-    <t>3:39:0</t>
+    <t>03:39:00</t>
   </si>
   <si>
     <t>7</t>
@@ -221,10 +221,10 @@
     <t>16:39:41</t>
   </si>
   <si>
-    <t>16:40:1</t>
-  </si>
-  <si>
-    <t>0:0:20</t>
+    <t>16:40:01</t>
+  </si>
+  <si>
+    <t>00:00:20</t>
   </si>
   <si>
     <t>8</t>
@@ -236,16 +236,16 @@
     <t>16:42:47</t>
   </si>
   <si>
-    <t>0:1:27</t>
-  </si>
-  <si>
-    <t>7:41:58</t>
-  </si>
-  <si>
-    <t>8:29:23</t>
-  </si>
-  <si>
-    <t>8:12:47</t>
+    <t>00:01:27</t>
+  </si>
+  <si>
+    <t>07:41:58</t>
+  </si>
+  <si>
+    <t>08:29:23</t>
+  </si>
+  <si>
+    <t>08:12:47</t>
   </si>
   <si>
     <t>حضور</t>
@@ -257,28 +257,28 @@
     <t>9</t>
   </si>
   <si>
-    <t>9:52:52</t>
-  </si>
-  <si>
-    <t>9:53:9</t>
+    <t>09:52:52</t>
+  </si>
+  <si>
+    <t>09:53:09</t>
   </si>
   <si>
     <t>1400/1/16</t>
   </si>
   <si>
-    <t>0:0:17</t>
+    <t>00:00:17</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>9:53:32</t>
+    <t>09:53:32</t>
   </si>
   <si>
     <t>11:45:19</t>
   </si>
   <si>
-    <t>1:51:47</t>
+    <t>01:51:47</t>
   </si>
   <si>
     <t>11</t>
@@ -290,19 +290,19 @@
     <t>13:35:47</t>
   </si>
   <si>
-    <t>1:41:18</t>
+    <t>01:41:18</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>14:3:42</t>
-  </si>
-  <si>
-    <t>18:9:41</t>
-  </si>
-  <si>
-    <t>4:5:59</t>
+    <t>14:03:42</t>
+  </si>
+  <si>
+    <t>18:09:41</t>
+  </si>
+  <si>
+    <t>04:05:59</t>
   </si>
   <si>
     <t>13</t>
@@ -314,13 +314,13 @@
     <t>18:10:48</t>
   </si>
   <si>
-    <t>0:0:14</t>
-  </si>
-  <si>
-    <t>7:39:35</t>
-  </si>
-  <si>
-    <t>8:17:56</t>
+    <t>00:00:14</t>
+  </si>
+  <si>
+    <t>07:39:35</t>
+  </si>
+  <si>
+    <t>08:17:56</t>
   </si>
   <si>
     <t>1400/1/17</t>
@@ -329,16 +329,16 @@
     <t>14</t>
   </si>
   <si>
-    <t>8:24:37</t>
-  </si>
-  <si>
-    <t>12:3:55</t>
+    <t>08:24:37</t>
+  </si>
+  <si>
+    <t>12:03:55</t>
   </si>
   <si>
     <t>1400/1/18</t>
   </si>
   <si>
-    <t>3:39:18</t>
+    <t>03:39:18</t>
   </si>
   <si>
     <t>15</t>
@@ -350,7 +350,7 @@
     <t>13:54:38</t>
   </si>
   <si>
-    <t>1:43:1</t>
+    <t>01:43:01</t>
   </si>
   <si>
     <t>16</t>
@@ -359,22 +359,22 @@
     <t>14:21:18</t>
   </si>
   <si>
-    <t>18:3:58</t>
-  </si>
-  <si>
-    <t>3:42:40</t>
-  </si>
-  <si>
-    <t>9:4:59</t>
-  </si>
-  <si>
-    <t>9:39:21</t>
-  </si>
-  <si>
-    <t>9:33:58</t>
-  </si>
-  <si>
-    <t>1:34:59</t>
+    <t>18:03:58</t>
+  </si>
+  <si>
+    <t>03:42:40</t>
+  </si>
+  <si>
+    <t>09:04:59</t>
+  </si>
+  <si>
+    <t>09:39:21</t>
+  </si>
+  <si>
+    <t>09:33:58</t>
+  </si>
+  <si>
+    <t>01:34:59</t>
   </si>
   <si>
     <t>1400/1/19</t>
@@ -386,40 +386,40 @@
     <t>17</t>
   </si>
   <si>
-    <t>9:51:29</t>
-  </si>
-  <si>
-    <t>9:51:47</t>
+    <t>09:51:29</t>
+  </si>
+  <si>
+    <t>09:51:47</t>
   </si>
   <si>
     <t>1400/1/21</t>
   </si>
   <si>
-    <t>0:0:18</t>
+    <t>00:00:18</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>9:52:18</t>
-  </si>
-  <si>
-    <t>9:55:52</t>
-  </si>
-  <si>
-    <t>0:3:34</t>
+    <t>09:52:18</t>
+  </si>
+  <si>
+    <t>09:55:52</t>
+  </si>
+  <si>
+    <t>00:03:34</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>10:1:36</t>
+    <t>10:01:36</t>
   </si>
   <si>
     <t>13:52:52</t>
   </si>
   <si>
-    <t>3:51:16</t>
+    <t>03:51:16</t>
   </si>
   <si>
     <t>20</t>
@@ -428,28 +428,28 @@
     <t>14:21:49</t>
   </si>
   <si>
-    <t>18:20:7</t>
-  </si>
-  <si>
-    <t>3:58:18</t>
+    <t>18:20:07</t>
+  </si>
+  <si>
+    <t>03:58:18</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>18:21:7</t>
+    <t>18:21:07</t>
   </si>
   <si>
     <t>18:21:23</t>
   </si>
   <si>
-    <t>0:0:16</t>
-  </si>
-  <si>
-    <t>7:53:42</t>
-  </si>
-  <si>
-    <t>8:29:54</t>
+    <t>00:00:16</t>
+  </si>
+  <si>
+    <t>07:53:42</t>
+  </si>
+  <si>
+    <t>08:29:54</t>
   </si>
   <si>
     <t>1400/1/22</t>
@@ -458,10 +458,10 @@
     <t>22</t>
   </si>
   <si>
-    <t>9:53:21</t>
-  </si>
-  <si>
-    <t>9:53:39</t>
+    <t>09:53:21</t>
+  </si>
+  <si>
+    <t>09:53:39</t>
   </si>
   <si>
     <t>1400/1/23</t>
@@ -470,13 +470,13 @@
     <t>23</t>
   </si>
   <si>
-    <t>9:54:7</t>
+    <t>09:54:07</t>
   </si>
   <si>
     <t>11:40:56</t>
   </si>
   <si>
-    <t>1:46:49</t>
+    <t>01:46:49</t>
   </si>
   <si>
     <t>24</t>
@@ -488,7 +488,7 @@
     <t>12:57:28</t>
   </si>
   <si>
-    <t>1:9:38</t>
+    <t>01:09:38</t>
   </si>
   <si>
     <t>25</t>
@@ -500,19 +500,19 @@
     <t>15:48:16</t>
   </si>
   <si>
-    <t>2:6:58</t>
+    <t>02:06:58</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>15:54:6</t>
+    <t>15:54:06</t>
   </si>
   <si>
     <t>17:18:49</t>
   </si>
   <si>
-    <t>1:24:43</t>
+    <t>01:24:43</t>
   </si>
   <si>
     <t>27</t>
@@ -524,16 +524,16 @@
     <t>18:15:25</t>
   </si>
   <si>
-    <t>0:40:46</t>
-  </si>
-  <si>
-    <t>7:9:12</t>
-  </si>
-  <si>
-    <t>8:22:4</t>
-  </si>
-  <si>
-    <t>0:20:48</t>
+    <t>00:40:46</t>
+  </si>
+  <si>
+    <t>07:09:12</t>
+  </si>
+  <si>
+    <t>08:22:04</t>
+  </si>
+  <si>
+    <t>00:20:48</t>
   </si>
   <si>
     <t>1400/1/24</t>
@@ -542,10 +542,10 @@
     <t>28</t>
   </si>
   <si>
-    <t>10:5:33</t>
-  </si>
-  <si>
-    <t>10:5:56</t>
+    <t>10:05:33</t>
+  </si>
+  <si>
+    <t>10:05:56</t>
   </si>
   <si>
     <t>1400/1/25</t>
@@ -554,25 +554,25 @@
     <t>29</t>
   </si>
   <si>
-    <t>10:6:46</t>
-  </si>
-  <si>
-    <t>11:2:26</t>
-  </si>
-  <si>
-    <t>0:55:40</t>
+    <t>10:06:46</t>
+  </si>
+  <si>
+    <t>11:02:26</t>
+  </si>
+  <si>
+    <t>00:55:40</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>11:7:56</t>
-  </si>
-  <si>
-    <t>13:48:4</t>
-  </si>
-  <si>
-    <t>2:40:8</t>
+    <t>11:07:56</t>
+  </si>
+  <si>
+    <t>13:48:04</t>
+  </si>
+  <si>
+    <t>02:40:08</t>
   </si>
   <si>
     <t>31</t>
@@ -581,10 +581,10 @@
     <t>13:54:52</t>
   </si>
   <si>
-    <t>13:56:2</t>
-  </si>
-  <si>
-    <t>0:1:10</t>
+    <t>13:56:02</t>
+  </si>
+  <si>
+    <t>00:01:10</t>
   </si>
   <si>
     <t>32</t>
@@ -596,7 +596,7 @@
     <t>14:19:31</t>
   </si>
   <si>
-    <t>0:0:7</t>
+    <t>00:00:07</t>
   </si>
   <si>
     <t>33</t>
@@ -608,16 +608,16 @@
     <t>14:28:39</t>
   </si>
   <si>
-    <t>0:6:47</t>
-  </si>
-  <si>
-    <t>3:44:15</t>
-  </si>
-  <si>
-    <t>4:23:6</t>
-  </si>
-  <si>
-    <t>3:45:45</t>
+    <t>00:06:47</t>
+  </si>
+  <si>
+    <t>03:44:15</t>
+  </si>
+  <si>
+    <t>04:23:06</t>
+  </si>
+  <si>
+    <t>03:45:45</t>
   </si>
   <si>
     <t>1400/1/26</t>
@@ -638,7 +638,7 @@
     <t>1400/1/28</t>
   </si>
   <si>
-    <t>1:0:54</t>
+    <t>01:00:54</t>
   </si>
   <si>
     <t>35</t>
@@ -647,22 +647,22 @@
     <t>14:47:26</t>
   </si>
   <si>
-    <t>15:58:4</t>
-  </si>
-  <si>
-    <t>1:10:38</t>
+    <t>15:58:04</t>
+  </si>
+  <si>
+    <t>01:10:38</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>16:6:45</t>
+    <t>16:06:45</t>
   </si>
   <si>
     <t>16:31:54</t>
   </si>
   <si>
-    <t>0:25:9</t>
+    <t>00:25:09</t>
   </si>
   <si>
     <t>37</t>
@@ -671,31 +671,31 @@
     <t>17:37:27</t>
   </si>
   <si>
-    <t>18:7:25</t>
-  </si>
-  <si>
-    <t>0:29:58</t>
+    <t>18:07:25</t>
+  </si>
+  <si>
+    <t>00:29:58</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>18:9:33</t>
+    <t>18:09:33</t>
   </si>
   <si>
     <t>18:11:38</t>
   </si>
   <si>
-    <t>0:2:5</t>
-  </si>
-  <si>
-    <t>3:8:44</t>
-  </si>
-  <si>
-    <t>4:31:4</t>
-  </si>
-  <si>
-    <t>4:21:16</t>
+    <t>00:02:05</t>
+  </si>
+  <si>
+    <t>03:08:44</t>
+  </si>
+  <si>
+    <t>04:31:04</t>
+  </si>
+  <si>
+    <t>04:21:16</t>
   </si>
   <si>
     <t>1400/1/29</t>
@@ -704,7 +704,7 @@
     <t>39</t>
   </si>
   <si>
-    <t>10:28:5</t>
+    <t>10:28:05</t>
   </si>
   <si>
     <t>10:36:34</t>
@@ -713,7 +713,7 @@
     <t>1400/1/30</t>
   </si>
   <si>
-    <t>0:8:29</t>
+    <t>00:08:29</t>
   </si>
   <si>
     <t>40</t>
@@ -725,7 +725,7 @@
     <t>13:47:34</t>
   </si>
   <si>
-    <t>3:5:8</t>
+    <t>03:05:08</t>
   </si>
   <si>
     <t>41</t>
@@ -737,19 +737,19 @@
     <t>15:27:14</t>
   </si>
   <si>
-    <t>1:9:27</t>
+    <t>01:09:27</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>15:33:3</t>
+    <t>15:33:03</t>
   </si>
   <si>
     <t>15:38:59</t>
   </si>
   <si>
-    <t>0:5:56</t>
+    <t>00:05:56</t>
   </si>
   <si>
     <t>43</t>
@@ -761,7 +761,7 @@
     <t>18:26:25</t>
   </si>
   <si>
-    <t>1:8:49</t>
+    <t>01:08:49</t>
   </si>
   <si>
     <t>44</t>
@@ -770,25 +770,34 @@
     <t>18:32:16</t>
   </si>
   <si>
-    <t>19:1:54</t>
-  </si>
-  <si>
-    <t>0:29:38</t>
-  </si>
-  <si>
-    <t>6:7:27</t>
-  </si>
-  <si>
-    <t>8:44:28</t>
-  </si>
-  <si>
-    <t>1:22:33</t>
+    <t>19:01:54</t>
+  </si>
+  <si>
+    <t>00:29:38</t>
+  </si>
+  <si>
+    <t>06:07:27</t>
+  </si>
+  <si>
+    <t>08:44:28</t>
+  </si>
+  <si>
+    <t>01:22:33</t>
   </si>
   <si>
     <t>1400/1/31</t>
   </si>
   <si>
+    <t>مجموع</t>
+  </si>
+  <si>
     <t>52:30:30</t>
+  </si>
+  <si>
+    <t>60:40:19</t>
+  </si>
+  <si>
+    <t>122:19:44</t>
   </si>
 </sst>
 </file>
@@ -798,7 +807,7 @@
   <numFmts count="1">
     <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -826,6 +835,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFAA0000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -859,12 +874,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="3" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="4" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyFont="1" fontId="5" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164"/>
   </cellXfs>
@@ -873,13 +889,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,27 +923,24 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -939,27 +952,24 @@
       <c r="I2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -967,22 +977,22 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -990,22 +1000,22 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1013,22 +1023,22 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1036,22 +1046,22 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1059,22 +1069,22 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1082,22 +1092,22 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1111,22 +1121,22 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>83</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1134,22 +1144,22 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>83</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1157,22 +1167,22 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>83</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1180,22 +1190,22 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>83</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1203,22 +1213,22 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>83</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1232,22 +1242,22 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1255,22 +1265,22 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1278,22 +1288,22 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1307,22 +1317,22 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>126</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1330,22 +1340,22 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>126</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1353,22 +1363,22 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>126</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1376,22 +1386,22 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="6" t="s">
         <v>126</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1399,22 +1409,22 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>126</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1428,22 +1438,22 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1451,22 +1461,22 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1474,22 +1484,22 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1497,22 +1507,22 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -1520,22 +1530,22 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -1543,22 +1553,22 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -1572,22 +1582,22 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="6" t="s">
         <v>178</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -1595,22 +1605,22 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="6" t="s">
         <v>178</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -1618,22 +1628,22 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="6" t="s">
         <v>178</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -1641,22 +1651,22 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="6" t="s">
         <v>178</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -1664,22 +1674,22 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="6" t="s">
         <v>178</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -1687,22 +1697,22 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="6" t="s">
         <v>178</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -1716,22 +1726,22 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -1739,22 +1749,22 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -1762,22 +1772,22 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -1785,22 +1795,22 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -1808,22 +1818,22 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="7" t="s">
         <v>207</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -1837,22 +1847,22 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="6" t="s">
         <v>232</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -1860,22 +1870,22 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="6" t="s">
         <v>232</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -1883,22 +1893,22 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="6" t="s">
         <v>232</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -1906,22 +1916,22 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="6" t="s">
         <v>232</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -1929,22 +1939,22 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="6" t="s">
         <v>232</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -1952,22 +1962,22 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="6" t="s">
         <v>232</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -1978,6 +1988,20 @@
       </c>
       <c r="I45" s="3" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -1987,7 +2011,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1995,131 +2019,128 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -2127,16 +2148,13 @@
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2147,81 +2165,81 @@
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>42</v>
@@ -2233,33 +2251,30 @@
         <v>44</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -2267,16 +2282,13 @@
         <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2298,27 +2310,27 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>83</v>
@@ -2335,27 +2347,27 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>107</v>
@@ -2373,27 +2385,24 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -2401,16 +2410,13 @@
         <v>122</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2432,27 +2438,27 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>150</v>
@@ -2464,7 +2470,7 @@
         <v>172</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>173</v>
@@ -2472,27 +2478,27 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>178</v>
@@ -2504,33 +2510,30 @@
         <v>200</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2538,16 +2541,13 @@
         <v>203</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2564,7 +2564,7 @@
         <v>226</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>227</v>
@@ -2572,27 +2572,27 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>232</v>
@@ -2604,7 +2604,7 @@
         <v>255</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>256</v>
@@ -2612,22 +2612,45 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>21</v>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
